--- a/natmiOut/OldD7/LR-pairs_lrc2p/Col18a1-Gpc1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Col18a1-Gpc1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.35916716340517</v>
+        <v>11.122774</v>
       </c>
       <c r="H2">
-        <v>5.35916716340517</v>
+        <v>33.368322</v>
       </c>
       <c r="I2">
-        <v>0.1364653469730998</v>
+        <v>0.2449652610853511</v>
       </c>
       <c r="J2">
-        <v>0.1364653469730998</v>
+        <v>0.2449652610853511</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>9.422114966676761</v>
+        <v>1.628421</v>
       </c>
       <c r="N2">
-        <v>9.422114966676761</v>
+        <v>4.885263</v>
       </c>
       <c r="O2">
-        <v>0.351447299020941</v>
+        <v>0.048329411442081</v>
       </c>
       <c r="P2">
-        <v>0.351447299020941</v>
+        <v>0.048329411442081</v>
       </c>
       <c r="Q2">
-        <v>50.49468913924249</v>
+        <v>18.112558759854</v>
       </c>
       <c r="R2">
-        <v>50.49468913924249</v>
+        <v>163.013028838686</v>
       </c>
       <c r="S2">
-        <v>0.04796037760365146</v>
+        <v>0.01183902689201073</v>
       </c>
       <c r="T2">
-        <v>0.04796037760365146</v>
+        <v>0.01183902689201073</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,55 +590,55 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.35916716340517</v>
+        <v>11.122774</v>
       </c>
       <c r="H3">
-        <v>5.35916716340517</v>
+        <v>33.368322</v>
       </c>
       <c r="I3">
-        <v>0.1364653469730998</v>
+        <v>0.2449652610853511</v>
       </c>
       <c r="J3">
-        <v>0.1364653469730998</v>
+        <v>0.2449652610853511</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.523375653680503</v>
+        <v>9.459065000000001</v>
       </c>
       <c r="N3">
-        <v>0.523375653680503</v>
+        <v>28.377195</v>
       </c>
       <c r="O3">
-        <v>0.01952204579437525</v>
+        <v>0.2807327123897247</v>
       </c>
       <c r="P3">
-        <v>0.01952204579437525</v>
+        <v>0.2807327123897247</v>
       </c>
       <c r="Q3">
-        <v>2.804857617330268</v>
+        <v>105.21104224631</v>
       </c>
       <c r="R3">
-        <v>2.804857617330268</v>
+        <v>946.89938021679</v>
       </c>
       <c r="S3">
-        <v>0.002664082752954162</v>
+        <v>0.06876976218574771</v>
       </c>
       <c r="T3">
-        <v>0.002664082752954162</v>
+        <v>0.06876976218574769</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.35916716340517</v>
+        <v>11.122774</v>
       </c>
       <c r="H4">
-        <v>5.35916716340517</v>
+        <v>33.368322</v>
       </c>
       <c r="I4">
-        <v>0.1364653469730998</v>
+        <v>0.2449652610853511</v>
       </c>
       <c r="J4">
-        <v>0.1364653469730998</v>
+        <v>0.2449652610853511</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.8639769525187</v>
+        <v>0.6418243333333334</v>
       </c>
       <c r="N4">
-        <v>16.8639769525187</v>
+        <v>1.925473</v>
       </c>
       <c r="O4">
-        <v>0.6290306551846837</v>
+        <v>0.01904850912583786</v>
       </c>
       <c r="P4">
-        <v>0.6290306551846837</v>
+        <v>0.01904850912583786</v>
       </c>
       <c r="Q4">
-        <v>90.3768715283598</v>
+        <v>7.138867007367335</v>
       </c>
       <c r="R4">
-        <v>90.3768715283598</v>
+        <v>64.249803066306</v>
       </c>
       <c r="S4">
-        <v>0.08584088661649415</v>
+        <v>0.004666223011297564</v>
       </c>
       <c r="T4">
-        <v>0.08584088661649415</v>
+        <v>0.004666223011297564</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.2139076492193</v>
+        <v>11.122774</v>
       </c>
       <c r="H5">
-        <v>18.2139076492193</v>
+        <v>33.368322</v>
       </c>
       <c r="I5">
-        <v>0.4637972937398354</v>
+        <v>0.2449652610853511</v>
       </c>
       <c r="J5">
-        <v>0.4637972937398354</v>
+        <v>0.2449652610853511</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.422114966676761</v>
+        <v>21.96489266666667</v>
       </c>
       <c r="N5">
-        <v>9.422114966676761</v>
+        <v>65.894678</v>
       </c>
       <c r="O5">
-        <v>0.351447299020941</v>
+        <v>0.6518893670423564</v>
       </c>
       <c r="P5">
-        <v>0.351447299020941</v>
+        <v>0.6518893670423563</v>
       </c>
       <c r="Q5">
-        <v>171.6135318633775</v>
+        <v>244.3105370655907</v>
       </c>
       <c r="R5">
-        <v>171.6135318633775</v>
+        <v>2198.794833590316</v>
       </c>
       <c r="S5">
-        <v>0.1630003061780871</v>
+        <v>0.1596902489962951</v>
       </c>
       <c r="T5">
-        <v>0.1630003061780871</v>
+        <v>0.1596902489962951</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.2139076492193</v>
+        <v>18.220714</v>
       </c>
       <c r="H6">
-        <v>18.2139076492193</v>
+        <v>54.662142</v>
       </c>
       <c r="I6">
-        <v>0.4637972937398354</v>
+        <v>0.4012885600454987</v>
       </c>
       <c r="J6">
-        <v>0.4637972937398354</v>
+        <v>0.4012885600454988</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.523375653680503</v>
+        <v>1.628421</v>
       </c>
       <c r="N6">
-        <v>0.523375653680503</v>
+        <v>4.885263</v>
       </c>
       <c r="O6">
-        <v>0.01952204579437525</v>
+        <v>0.048329411442081</v>
       </c>
       <c r="P6">
-        <v>0.01952204579437525</v>
+        <v>0.048329411442081</v>
       </c>
       <c r="Q6">
-        <v>9.532715821986466</v>
+        <v>29.670993312594</v>
       </c>
       <c r="R6">
-        <v>9.532715821986466</v>
+        <v>267.038939813346</v>
       </c>
       <c r="S6">
-        <v>0.009054272007696377</v>
+        <v>0.01939403992543913</v>
       </c>
       <c r="T6">
-        <v>0.009054272007696377</v>
+        <v>0.01939403992543914</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>18.2139076492193</v>
+        <v>18.220714</v>
       </c>
       <c r="H7">
-        <v>18.2139076492193</v>
+        <v>54.662142</v>
       </c>
       <c r="I7">
-        <v>0.4637972937398354</v>
+        <v>0.4012885600454987</v>
       </c>
       <c r="J7">
-        <v>0.4637972937398354</v>
+        <v>0.4012885600454988</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.8639769525187</v>
+        <v>9.459065000000001</v>
       </c>
       <c r="N7">
-        <v>16.8639769525187</v>
+        <v>28.377195</v>
       </c>
       <c r="O7">
-        <v>0.6290306551846837</v>
+        <v>0.2807327123897247</v>
       </c>
       <c r="P7">
-        <v>0.6290306551846837</v>
+        <v>0.2807327123897247</v>
       </c>
       <c r="Q7">
-        <v>307.1589188117384</v>
+        <v>172.35091807241</v>
       </c>
       <c r="R7">
-        <v>307.1589188117384</v>
+        <v>1551.15826265169</v>
       </c>
       <c r="S7">
-        <v>0.2917427155540519</v>
+        <v>0.1126548259125398</v>
       </c>
       <c r="T7">
-        <v>0.2917427155540519</v>
+        <v>0.1126548259125398</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.0896798937788435</v>
+        <v>18.220714</v>
       </c>
       <c r="H8">
-        <v>0.0896798937788435</v>
+        <v>54.662142</v>
       </c>
       <c r="I8">
-        <v>0.00228360068792192</v>
+        <v>0.4012885600454987</v>
       </c>
       <c r="J8">
-        <v>0.00228360068792192</v>
+        <v>0.4012885600454988</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.422114966676761</v>
+        <v>0.6418243333333334</v>
       </c>
       <c r="N8">
-        <v>9.422114966676761</v>
+        <v>1.925473</v>
       </c>
       <c r="O8">
-        <v>0.351447299020941</v>
+        <v>0.01904850912583786</v>
       </c>
       <c r="P8">
-        <v>0.351447299020941</v>
+        <v>0.01904850912583786</v>
       </c>
       <c r="Q8">
-        <v>0.8449742693836234</v>
+        <v>11.69449761590734</v>
       </c>
       <c r="R8">
-        <v>0.8449742693836234</v>
+        <v>105.250478543166</v>
       </c>
       <c r="S8">
-        <v>0.0008025652938125216</v>
+        <v>0.007643948798121017</v>
       </c>
       <c r="T8">
-        <v>0.0008025652938125216</v>
+        <v>0.007643948798121017</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.0896798937788435</v>
+        <v>18.220714</v>
       </c>
       <c r="H9">
-        <v>0.0896798937788435</v>
+        <v>54.662142</v>
       </c>
       <c r="I9">
-        <v>0.00228360068792192</v>
+        <v>0.4012885600454987</v>
       </c>
       <c r="J9">
-        <v>0.00228360068792192</v>
+        <v>0.4012885600454988</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.523375653680503</v>
+        <v>21.96489266666667</v>
       </c>
       <c r="N9">
-        <v>0.523375653680503</v>
+        <v>65.894678</v>
       </c>
       <c r="O9">
-        <v>0.01952204579437525</v>
+        <v>0.6518893670423564</v>
       </c>
       <c r="P9">
-        <v>0.01952204579437525</v>
+        <v>0.6518893670423563</v>
       </c>
       <c r="Q9">
-        <v>0.04693627302850029</v>
+        <v>400.2160273200307</v>
       </c>
       <c r="R9">
-        <v>0.04693627302850029</v>
+        <v>3601.944245880276</v>
       </c>
       <c r="S9">
-        <v>4.458055720567855E-05</v>
+        <v>0.2615957454093988</v>
       </c>
       <c r="T9">
-        <v>4.458055720567855E-05</v>
+        <v>0.2615957454093988</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.0896798937788435</v>
+        <v>0.1189986666666667</v>
       </c>
       <c r="H10">
-        <v>0.0896798937788435</v>
+        <v>0.356996</v>
       </c>
       <c r="I10">
-        <v>0.00228360068792192</v>
+        <v>0.002620797603979787</v>
       </c>
       <c r="J10">
-        <v>0.00228360068792192</v>
+        <v>0.002620797603979787</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>16.8639769525187</v>
+        <v>1.628421</v>
       </c>
       <c r="N10">
-        <v>16.8639769525187</v>
+        <v>4.885263</v>
       </c>
       <c r="O10">
-        <v>0.6290306551846837</v>
+        <v>0.048329411442081</v>
       </c>
       <c r="P10">
-        <v>0.6290306551846837</v>
+        <v>0.048329411442081</v>
       </c>
       <c r="Q10">
-        <v>1.512359661790742</v>
+        <v>0.193779927772</v>
       </c>
       <c r="R10">
-        <v>1.512359661790742</v>
+        <v>1.744019349948</v>
       </c>
       <c r="S10">
-        <v>0.00143645483690372</v>
+        <v>0.0001266616057091592</v>
       </c>
       <c r="T10">
-        <v>0.00143645483690372</v>
+        <v>0.0001266616057091592</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1089,57 +1089,57 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>15.6085129250898</v>
+        <v>0.1189986666666667</v>
       </c>
       <c r="H11">
-        <v>15.6085129250898</v>
+        <v>0.356996</v>
       </c>
       <c r="I11">
-        <v>0.3974537585991429</v>
+        <v>0.002620797603979787</v>
       </c>
       <c r="J11">
-        <v>0.3974537585991429</v>
+        <v>0.002620797603979787</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.422114966676761</v>
+        <v>9.459065000000001</v>
       </c>
       <c r="N11">
-        <v>9.422114966676761</v>
+        <v>28.377195</v>
       </c>
       <c r="O11">
-        <v>0.351447299020941</v>
+        <v>0.2807327123897247</v>
       </c>
       <c r="P11">
-        <v>0.351447299020941</v>
+        <v>0.2807327123897247</v>
       </c>
       <c r="Q11">
-        <v>147.0652032390563</v>
+        <v>1.125616122913333</v>
       </c>
       <c r="R11">
-        <v>147.0652032390563</v>
+        <v>10.13054510622</v>
       </c>
       <c r="S11">
-        <v>0.1396840499453899</v>
+        <v>0.0007357436199897371</v>
       </c>
       <c r="T11">
-        <v>0.1396840499453899</v>
+        <v>0.000735743619989737</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1151,57 +1151,57 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>15.6085129250898</v>
+        <v>0.1189986666666667</v>
       </c>
       <c r="H12">
-        <v>15.6085129250898</v>
+        <v>0.356996</v>
       </c>
       <c r="I12">
-        <v>0.3974537585991429</v>
+        <v>0.002620797603979787</v>
       </c>
       <c r="J12">
-        <v>0.3974537585991429</v>
+        <v>0.002620797603979787</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.523375653680503</v>
+        <v>0.6418243333333334</v>
       </c>
       <c r="N12">
-        <v>0.523375653680503</v>
+        <v>1.925473</v>
       </c>
       <c r="O12">
-        <v>0.01952204579437525</v>
+        <v>0.01904850912583786</v>
       </c>
       <c r="P12">
-        <v>0.01952204579437525</v>
+        <v>0.01904850912583786</v>
       </c>
       <c r="Q12">
-        <v>8.169115655149454</v>
+        <v>0.07637623990088889</v>
       </c>
       <c r="R12">
-        <v>8.169115655149454</v>
+        <v>0.687386159108</v>
       </c>
       <c r="S12">
-        <v>0.007759110476519035</v>
+        <v>4.992228707638296E-05</v>
       </c>
       <c r="T12">
-        <v>0.007759110476519035</v>
+        <v>4.992228707638296E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>15.6085129250898</v>
+        <v>0.1189986666666667</v>
       </c>
       <c r="H13">
-        <v>15.6085129250898</v>
+        <v>0.356996</v>
       </c>
       <c r="I13">
-        <v>0.3974537585991429</v>
+        <v>0.002620797603979787</v>
       </c>
       <c r="J13">
-        <v>0.3974537585991429</v>
+        <v>0.002620797603979787</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>16.8639769525187</v>
+        <v>21.96489266666667</v>
       </c>
       <c r="N13">
-        <v>16.8639769525187</v>
+        <v>65.894678</v>
       </c>
       <c r="O13">
-        <v>0.6290306551846837</v>
+        <v>0.6518893670423564</v>
       </c>
       <c r="P13">
-        <v>0.6290306551846837</v>
+        <v>0.6518893670423563</v>
       </c>
       <c r="Q13">
-        <v>263.2216022318046</v>
+        <v>2.613792940809778</v>
       </c>
       <c r="R13">
-        <v>263.2216022318046</v>
+        <v>23.524136467288</v>
       </c>
       <c r="S13">
-        <v>0.250010598177234</v>
+        <v>0.001708470091204507</v>
       </c>
       <c r="T13">
-        <v>0.250010598177234</v>
+        <v>0.001708470091204507</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>15.943029</v>
+      </c>
+      <c r="H14">
+        <v>47.829087</v>
+      </c>
+      <c r="I14">
+        <v>0.3511253812651704</v>
+      </c>
+      <c r="J14">
+        <v>0.3511253812651704</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>1.628421</v>
+      </c>
+      <c r="N14">
+        <v>4.885263</v>
+      </c>
+      <c r="O14">
+        <v>0.048329411442081</v>
+      </c>
+      <c r="P14">
+        <v>0.048329411442081</v>
+      </c>
+      <c r="Q14">
+        <v>25.961963227209</v>
+      </c>
+      <c r="R14">
+        <v>233.657669044881</v>
+      </c>
+      <c r="S14">
+        <v>0.01696968301892198</v>
+      </c>
+      <c r="T14">
+        <v>0.01696968301892198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>15.943029</v>
+      </c>
+      <c r="H15">
+        <v>47.829087</v>
+      </c>
+      <c r="I15">
+        <v>0.3511253812651704</v>
+      </c>
+      <c r="J15">
+        <v>0.3511253812651704</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>9.459065000000001</v>
+      </c>
+      <c r="N15">
+        <v>28.377195</v>
+      </c>
+      <c r="O15">
+        <v>0.2807327123897247</v>
+      </c>
+      <c r="P15">
+        <v>0.2807327123897247</v>
+      </c>
+      <c r="Q15">
+        <v>150.806147607885</v>
+      </c>
+      <c r="R15">
+        <v>1357.255328470965</v>
+      </c>
+      <c r="S15">
+        <v>0.09857238067144752</v>
+      </c>
+      <c r="T15">
+        <v>0.09857238067144751</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>15.943029</v>
+      </c>
+      <c r="H16">
+        <v>47.829087</v>
+      </c>
+      <c r="I16">
+        <v>0.3511253812651704</v>
+      </c>
+      <c r="J16">
+        <v>0.3511253812651704</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.6418243333333334</v>
+      </c>
+      <c r="N16">
+        <v>1.925473</v>
+      </c>
+      <c r="O16">
+        <v>0.01904850912583786</v>
+      </c>
+      <c r="P16">
+        <v>0.01904850912583786</v>
+      </c>
+      <c r="Q16">
+        <v>10.232623959239</v>
+      </c>
+      <c r="R16">
+        <v>92.09361563315102</v>
+      </c>
+      <c r="S16">
+        <v>0.006688415029342896</v>
+      </c>
+      <c r="T16">
+        <v>0.006688415029342896</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>15.943029</v>
+      </c>
+      <c r="H17">
+        <v>47.829087</v>
+      </c>
+      <c r="I17">
+        <v>0.3511253812651704</v>
+      </c>
+      <c r="J17">
+        <v>0.3511253812651704</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>21.96489266666667</v>
+      </c>
+      <c r="N17">
+        <v>65.894678</v>
+      </c>
+      <c r="O17">
+        <v>0.6518893670423564</v>
+      </c>
+      <c r="P17">
+        <v>0.6518893670423563</v>
+      </c>
+      <c r="Q17">
+        <v>350.186920766554</v>
+      </c>
+      <c r="R17">
+        <v>3151.682286898986</v>
+      </c>
+      <c r="S17">
+        <v>0.228894902545458</v>
+      </c>
+      <c r="T17">
+        <v>0.228894902545458</v>
       </c>
     </row>
   </sheetData>
